--- a/avision.xlsx
+++ b/avision.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptrinh1\Projects\avisionLocal\avisionMock\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F888AC38-0955-457A-A3AE-B3D604700BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Chung" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Cac Model" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Lỗi" sheetId="3" r:id="rId6"/>
+    <sheet name="Chung" sheetId="1" r:id="rId1"/>
+    <sheet name="Cac Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Lỗi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="pdgDqgLNWglYNYAmOmSdIDA7NOBc0nlOUD4alPOeBUc="/>
@@ -578,26 +587,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -605,7 +618,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -615,52 +628,49 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -671,11 +681,17 @@
     <xdr:ext cx="10534650" cy="5600700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Hình ảnh"/>
+        <xdr:cNvPr id="2" name="image2.png" title="Hình ảnh">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -699,11 +715,17 @@
     <xdr:ext cx="14601825" cy="3762375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Hình ảnh"/>
+        <xdr:cNvPr id="3" name="image1.png" title="Hình ảnh">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -721,7 +743,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -911,25 +933,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="65.86"/>
-    <col customWidth="1" min="2" max="2" width="77.43"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="65.81640625" customWidth="1"/>
+    <col min="2" max="2" width="77.453125" customWidth="1"/>
+    <col min="3" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="14.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -945,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="14.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -953,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="14.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="14.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,7 +993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="14.5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -977,7 +1001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="14.5">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="14.5">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="14.5">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="14.5">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +1033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="14.5">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="14.5">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="14.5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="14.5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1041,7 +1065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="14.5">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="14.5">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="14.5">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1065,617 +1089,619 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" ht="14.5">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" ht="14.5">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" ht="14.5">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" ht="60.0" customHeight="1">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:2" ht="60" customHeight="1">
+      <c r="A93" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -2586,30 +2612,26 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C933"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.57"/>
-    <col customWidth="1" min="2" max="2" width="13.29"/>
-    <col customWidth="1" min="3" max="3" width="50.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="50.81640625" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -2620,45 +2642,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3561,40 +3583,40 @@
     <row r="932" ht="15.75" customHeight="1"/>
     <row r="933" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/avision.xlsx
+++ b/avision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptrinh1\Projects\avisionLocal\avisionMock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F888AC38-0955-457A-A3AE-B3D604700BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B56A6-1EAB-4D66-90F5-DBC903404830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,9 +365,6 @@
     <t>nạp giấy</t>
   </si>
   <si>
-    <t xml:space="preserve">Thiết bị ghép nối được sạc </t>
-  </si>
-  <si>
     <t>linh kiện tích điện kép (CCD)</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>Bỏ phần download tài liệu giới thiệu</t>
+  </si>
+  <si>
+    <t>Thiết bị ghép nối được sạc (CCD)</t>
   </si>
 </sst>
 </file>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1419,282 +1419,282 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="60" customHeight="1">
       <c r="A93" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1">
@@ -2633,7 +2633,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.5">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3601,15 +3601,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
